--- a/public/DuAn_DuAn24114.xlsx
+++ b/public/DuAn_DuAn24114.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Thông Tin Dự Án</t>
   </si>
@@ -71,46 +71,100 @@
     <t>Các giai đoạn</t>
   </si>
   <si>
-    <t>Thời gian giai đoạn</t>
-  </si>
-  <si>
-    <t>Số lượng công việc</t>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Khởi Đầu</t>
+  </si>
+  <si>
+    <t>công việc 1</t>
+  </si>
+  <si>
+    <t>21/09/2024 - 12/10/2024</t>
   </si>
   <si>
     <t>Đang thực hiện</t>
   </si>
   <si>
-    <t>Hoàn thành</t>
+    <t>Người nhận việc</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>Tiến độ</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhân Viên</t>
+  </si>
+  <si>
+    <t>nvthao2001255@student.ctuet.edu.vn</t>
+  </si>
+  <si>
+    <t>0788774326</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>Khởi Đầu mới</t>
+  </si>
+  <si>
+    <t>19/08/2024 - 29/08/2024</t>
   </si>
   <si>
     <t>Trễ hẹn</t>
   </si>
   <si>
-    <t>Khởi Đầu</t>
-  </si>
-  <si>
-    <t>19/08/2024 - 31/08/2024</t>
+    <t>4%</t>
   </si>
   <si>
     <t>Thiết Kế</t>
   </si>
   <si>
-    <t>31/08/2024 - 12/09/2024</t>
+    <t>thiết kế web</t>
+  </si>
+  <si>
+    <t>31/08/2024 - 22/09/2024</t>
+  </si>
+  <si>
+    <t>53%</t>
   </si>
   <si>
     <t>Triển Khai</t>
   </si>
   <si>
-    <t>12/09/2024 - 24/09/2024</t>
+    <t>12/09/2024 - 22/09/2024</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Đăng Khoa</t>
+  </si>
+  <si>
+    <t>nvthao1.12a5.20@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn văn thảo</t>
+  </si>
+  <si>
+    <t>nvthao.12a5.2002@gmail.com</t>
   </si>
   <si>
     <t>Kiểm Thử</t>
   </si>
   <si>
-    <t>24/09/2024 - 06/10/2024</t>
-  </si>
-  <si>
-    <t>Tổng</t>
+    <t>kiểm thử</t>
+  </si>
+  <si>
+    <t>24/09/2024 - 05/10/2024</t>
   </si>
 </sst>
 </file>
@@ -118,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -143,6 +197,33 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -182,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -198,7 +279,16 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -500,28 +590,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:F16"/>
+      <selection activeCell="A11" sqref="A11:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="24.565" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21.852" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="47.274" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -529,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -537,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -545,7 +635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -553,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -561,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -569,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" customHeight="1" ht="50">
+    <row r="8" spans="1:7" customHeight="1" ht="50">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -581,7 +671,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" customHeight="1" ht="50">
+    <row r="9" spans="1:7" customHeight="1" ht="50">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -593,7 +683,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -606,110 +696,374 @@
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
